--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -96,9 +96,6 @@
     <t>start work on extraced indices: Correlation coefficients, regression analysis</t>
   </si>
   <si>
-    <t>buffer....</t>
-  </si>
-  <si>
     <t>Methods, Results as they come in)</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>More time for statistics (Climatic Controls - LAI)</t>
   </si>
   <si>
-    <t>holidays</t>
-  </si>
-  <si>
     <t xml:space="preserve">Writing &amp; Layouting, finishing touches </t>
   </si>
   <si>
@@ -127,13 +121,19 @@
   </si>
   <si>
     <t>Final Presentation, more finishing touches</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>holidays / buffer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,20 +142,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,24 +203,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,13 +602,13 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D14" sqref="B2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,131 +624,134 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="42" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" ht="42" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="42" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="42" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="42" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="42" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="42" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="42" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="10" spans="2:4" ht="42" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="42" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="42" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="42" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:4" ht="42" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="42" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="42" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="42" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" ht="42" customHeight="1">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="42" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="6380" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timetable" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>October</t>
   </si>
@@ -127,13 +128,112 @@
   </si>
   <si>
     <t>holidays / buffer</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Time invested</t>
+  </si>
+  <si>
+    <t>Light_fac extraction, meeting preparations</t>
+  </si>
+  <si>
+    <t>days_per_decade for temp-fac application</t>
+  </si>
+  <si>
+    <t>Dec 2014</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Concept work</t>
+  </si>
+  <si>
+    <t>Reading papers</t>
+  </si>
+  <si>
+    <t>R-coding simple raster operations</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>HANTS extraction (getting it to work..)</t>
+  </si>
+  <si>
+    <t>Data preparation resizing, rotation (IDL)</t>
+  </si>
+  <si>
+    <t>Data preparation watermask (part 1..)</t>
+  </si>
+  <si>
+    <t>Data preparation layer extraction</t>
+  </si>
+  <si>
+    <t>Oct 2014</t>
+  </si>
+  <si>
+    <t>Introduction to R coding</t>
+  </si>
+  <si>
+    <t>HANTS continued (trying out parameters)</t>
+  </si>
+  <si>
+    <t>refining LSP extraction</t>
+  </si>
+  <si>
+    <t>code LSP extraction (christmas session)</t>
+  </si>
+  <si>
+    <t>modifiying processing chain for NHEM/SHEM</t>
+  </si>
+  <si>
+    <t>applying Viprocessor</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>BUGFIX: error when processing years without any amplitude!</t>
+  </si>
+  <si>
+    <t>Mar 14</t>
+  </si>
+  <si>
+    <t>LAI comparison: writing bimonthly_extractor for LAIre</t>
+  </si>
+  <si>
+    <t>LAI comparison: difference map</t>
+  </si>
+  <si>
+    <t>write general correlation functions</t>
+  </si>
+  <si>
+    <t>rewriting watermask creation (stricter, LAI3g based)</t>
+  </si>
+  <si>
+    <t>realized when looking at correlations that many 0-values present, skewing results, especially along water-borders due to bad masking.</t>
+  </si>
+  <si>
+    <t>write decadal_change for GSL</t>
+  </si>
+  <si>
+    <t>took a while to get around NA-values...</t>
+  </si>
+  <si>
+    <t>rewrite bimonthly extractor for climatic controls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +267,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -236,7 +344,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +361,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -601,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="B2:D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -758,4 +883,395 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" customHeight="1">
+      <c r="A4" s="10">
+        <v>41944</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="9">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" customHeight="1">
+      <c r="A5" s="10">
+        <v>41944</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="17" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="17" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="9">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" customHeight="1">
+      <c r="A13" s="10">
+        <v>41640</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" customHeight="1">
+      <c r="A14" s="10">
+        <v>41640</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="17" customHeight="1">
+      <c r="A15" s="10">
+        <v>41671</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" customHeight="1">
+      <c r="A16" s="10">
+        <v>41671</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
+        <v>41730</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13">
+        <v>41730</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
+        <v>41730</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12">
+        <v>42118</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12">
+        <v>42127</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="11">
+        <v>8</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <f>SUM(C:C)</f>
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>